--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_194.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_194.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,547 +488,567 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4512820512820513</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[['Eb', 'Ab/5', 'Eb', 'Ab/5']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:17.016000', '0:00:24.727000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D', 'D/b7'], ['A', 'D', 'D/b7', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G', 'G'], ['D', 'G', 'G', 'C']]</t>
+          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(29.965374, 35.781972), (31.439841, 37.291269)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(65.382154, 77.68873), (59.333356, 68.841927)]</t>
+          <t>[('0:00:04.160000', '0:00:06.700000'), ('0:00:01.640000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:25.480000', '0:00:32.800000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.162280701754386</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07146401985111663</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(51.85331, 57.05458)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(29.965374, 34.307505)]</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+          <t>[('0:01:30.600000', '0:01:41.180000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:28.140000', '0:00:36.100000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:03.320000', '0:00:06.300000'), ('0:00:00.560000', '0:00:04.260000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[('0:00:17.360000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:03:44.020000', '0:04:01.440000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (25.48, 32.76)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:45', '0:01:48.540000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3055555555555556</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[('0:02:08.760000', '0:02:14.600000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:00.465952', '0:00:08.500330')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.88, 21.16)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.02, 24.78)]</t>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:11.640000', '0:01:19.220000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E', 'E/7']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G', 'G']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.935986, 13.148866)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(65.382154, 77.68873)]</t>
+          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:58.080000', '0:01:05.660000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1057579318448884</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['F:min/5', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[['G:min', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:00:23.563446', '0:00:27.290249')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:44.859274', '0:00:49.758684')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(17.36, 19.54)]</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1031,35 +1056,40 @@
           <t>schubert-winterreise_146</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -1068,135 +1098,92 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(34.94, 36.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.26, 21.14)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
